--- a/parser/results.xlsx
+++ b/parser/results.xlsx
@@ -429,9 +429,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13" customWidth="1" min="1" max="1"/>
-    <col width="17" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
+    <col width="19" customWidth="1" min="2" max="2"/>
+    <col width="16" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -464,17 +464,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>gfbsdrtbserbsae</t>
+          <t>я еблан ебланович</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>rbserbsfbxdfb</t>
+          <t>фцуваичваичваи</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>xdfbxdfbxdfbxdfb</t>
+          <t>уцфафцуафцуа</t>
         </is>
       </c>
     </row>
